--- a/biology/Botanique/Tithonia/Tithonia.xlsx
+++ b/biology/Botanique/Tithonia/Tithonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tithonia est un genre de plantes à fleurs de la famille des Astéracées originaires d'Amérique centrale.
 </t>
@@ -511,13 +523,15 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tithonia est un genre de plantes herbacées, annuelles ou pérennes, atteignant au plus deux mètres de haut.
 Les feuilles sont alternes.
 Les fleurs, de couleur orange très soutenue, ont un calice cylindrique. Les divisions sont profondes, disposées sur deux rangs.
 Les graines sont allongées et terminées par une touffe de quatre à cinq poils.
-Le nombre de base de chromosomes du genre est 17[2].
+Le nombre de base de chromosomes du genre est 17.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sont originaires d'Amérique centrale, du Guatemala au Mexique.
 L'usage ornemental de plusieurs espèces ont répandu le genre à presque l'ensemble de la planète.
@@ -579,7 +595,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date de septembre 2012, avec une recherche bibliographique. Les espèces conservées dans le genre sont mises en caractères gras :
 Tithonia angustifolia Hook. &amp; Arn. (1841) : voir Viguiera angustifolia (Hook. &amp; Arn.) S.F.Blake
@@ -657,14 +675,16 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>René Desfontaines décrit une première fois ce genre, à partir d'exemplaires de Tithonia tagetiflora (i.e. Tithonia rotundifolia) issus de graines collectées à Verra Cruz en 1778, dans une communication à l'Académie des Sciences en 1780 mais cette communication n'a pas été publiée. Antoine-Laurent de Jussieu reprend et complète cette description en 1789[3]. Il publie la contribution complète de René Desfontaines en 1802[4]. René Desfontaines a nommé le genre par analogie avec la couleur de la fleur rappelant l'aurore, avec le nom du héros troyen Tithon (Τιθωνός) aimé par la déesse grecque de l'aurore Éos (Ἠώς).
-En 1792, Johann Friedrich Gmelin assigne au genre l'espèce-type : Tithonia uniflora J.F.Gmel., espèce synonyme de Tithonia rotundifolia[5].
-En 1873, George Bentham et William Jackson Hooker créent un nouveau genre, auparavant seulement section du genre Tithonia : Mirasolia (Sch. Bip.) Benth. &amp; Hook. f., dans lequel ne figureront que trois espèces, toutes du genre Tithonia : Mirasolia calva (Sch.Bip.) Benth. &amp; Hook.f., Mirasolia diversifolia Hemsl., Mirasolia scaberrima (Benth.) Benth. &amp; Hook. f. ex Hemsl.[6]
-En 1891, Otto Kuntze se penche sur le genre Rivina L. Il constate que les espèces incluses alors dans ce genre ne devraient pas être regroupées, en particulier Rivina humilis et Rivina scandens. Il réserve le nom du genre Rivina L. (Phytolaccacée) pour Rivina scandens et tire d'un ouvrage antérieur à 1753 (date de fondation de la nomenclature binomiale) le nom de Tithonia avec Tithonia humilis, espèce renommée en 1753 par Linné Rivina humilis[7]. Il constitue ainsi un homonyme car c'est évidemment la version de Linné de 1753 qui compte comme départ de la nomenclature binomiale. Pour placer les espèces classées dans le genre Tithonia, il les transfère dans le genre Urbanisol, genre sans maintenant aucune espèce[8].
-En 1921, Sidney Fay Blake publie une révision du genre conduisant à huit espèces et des variétés ou sous-espèces[9].
-En 1982, John C. La Duke procède à une nouvelle révision portant le genre à 11 espèces et concluant à une monophylogénie du genre[10]. Les index prennent actuellement en considération cette dernière révision. John C. La Duke structure le genre ainsi :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>René Desfontaines décrit une première fois ce genre, à partir d'exemplaires de Tithonia tagetiflora (i.e. Tithonia rotundifolia) issus de graines collectées à Verra Cruz en 1778, dans une communication à l'Académie des Sciences en 1780 mais cette communication n'a pas été publiée. Antoine-Laurent de Jussieu reprend et complète cette description en 1789. Il publie la contribution complète de René Desfontaines en 1802. René Desfontaines a nommé le genre par analogie avec la couleur de la fleur rappelant l'aurore, avec le nom du héros troyen Tithon (Τιθωνός) aimé par la déesse grecque de l'aurore Éos (Ἠώς).
+En 1792, Johann Friedrich Gmelin assigne au genre l'espèce-type : Tithonia uniflora J.F.Gmel., espèce synonyme de Tithonia rotundifolia.
+En 1873, George Bentham et William Jackson Hooker créent un nouveau genre, auparavant seulement section du genre Tithonia : Mirasolia (Sch. Bip.) Benth. &amp; Hook. f., dans lequel ne figureront que trois espèces, toutes du genre Tithonia : Mirasolia calva (Sch.Bip.) Benth. &amp; Hook.f., Mirasolia diversifolia Hemsl., Mirasolia scaberrima (Benth.) Benth. &amp; Hook. f. ex Hemsl.
+En 1891, Otto Kuntze se penche sur le genre Rivina L. Il constate que les espèces incluses alors dans ce genre ne devraient pas être regroupées, en particulier Rivina humilis et Rivina scandens. Il réserve le nom du genre Rivina L. (Phytolaccacée) pour Rivina scandens et tire d'un ouvrage antérieur à 1753 (date de fondation de la nomenclature binomiale) le nom de Tithonia avec Tithonia humilis, espèce renommée en 1753 par Linné Rivina humilis. Il constitue ainsi un homonyme car c'est évidemment la version de Linné de 1753 qui compte comme départ de la nomenclature binomiale. Pour placer les espèces classées dans le genre Tithonia, il les transfère dans le genre Urbanisol, genre sans maintenant aucune espèce.
+En 1921, Sidney Fay Blake publie une révision du genre conduisant à huit espèces et des variétés ou sous-espèces.
+En 1982, John C. La Duke procède à une nouvelle révision portant le genre à 11 espèces et concluant à une monophylogénie du genre. Les index prennent actuellement en considération cette dernière révision. John C. La Duke structure le genre ainsi :
 Section Tithonia
 Série Tithonia
 Tithonia brachypappa B.L.Rob.
